--- a/Trabalho Fatec Automotive.xlsx
+++ b/Trabalho Fatec Automotive.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DERYK\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="15330" windowHeight="4470" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="15330" windowHeight="4470" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -42,9 +37,9 @@
     <definedName name="Tab_IRRF">dados!$E$11:$G$14</definedName>
     <definedName name="Teto_INSS">dados!$F$6</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -209,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dddd"/>
@@ -490,9 +485,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -502,6 +515,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,35 +544,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Estilo 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Estilo 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Estilo 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Estilo 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Estilo 1" xfId="2"/>
+    <cellStyle name="Estilo 2" xfId="3"/>
+    <cellStyle name="Estilo 3" xfId="4"/>
+    <cellStyle name="Estilo 4" xfId="5"/>
+    <cellStyle name="Estilo 5" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -583,27 +578,333 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$16:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carlão </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$17:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3622.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3970.4751000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Renatão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$18:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3482.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3795.0027000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jorjão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$19:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3788.4500750000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Betão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$20:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3692.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4063.8023250000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tonhão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$21:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3613.8743500000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zélão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$22:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4182.8509500000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dados!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ditão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$23:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3682.5044750000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="110711552"/>
+        <c:axId val="110917504"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="110711552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="110917504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110917504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110711552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>604835</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>533397</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>576262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>540542</xdr:colOff>
+      <xdr:colOff>469104</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Imagem 4" descr="carro1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +920,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152898" y="1350168"/>
+          <a:off x="4081460" y="1338262"/>
           <a:ext cx="4245769" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -627,6 +928,41 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -653,7 +989,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -717,7 +1053,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +1117,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E37185-EA99-49B8-810B-88B103420D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12E37185-EA99-49B8-810B-88B103420D90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +1181,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61344E3F-5FD9-450E-BE47-3F83E94AF34B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61344E3F-5FD9-450E-BE47-3F83E94AF34B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,7 +1245,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF1EE9-C683-4901-8E4A-41B4603CBC8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF1EE9-C683-4901-8E4A-41B4603CBC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +1309,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650D51DD-0426-402E-8A9B-FA4C58E16F7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{650D51DD-0426-402E-8A9B-FA4C58E16F7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1373,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E548CB-4B56-4171-9CF7-5E39057440E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2E548CB-4B56-4171-9CF7-5E39057440E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1437,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3295AE56-90C0-4624-84A2-D4589CD17217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3295AE56-90C0-4624-84A2-D4589CD17217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,18 +1735,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:J16"/>
+      <selection activeCell="F21" sqref="F21:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1489,42 +1825,42 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="45.75">
+    <row r="5" spans="1:17" ht="47.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17">
@@ -1635,9 +1971,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1652,9 +1988,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1669,13 +2005,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1684,15 +2020,15 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1701,9 +2037,9 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1718,17 +2054,17 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="F18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1737,15 +2073,15 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1754,9 +2090,9 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="2"/>
@@ -1771,17 +2107,17 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1790,15 +2126,15 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1807,13 +2143,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1824,13 +2160,13 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1841,9 +2177,9 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="2"/>
@@ -1858,9 +2194,9 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="2"/>
@@ -2037,8 +2373,8 @@
     <mergeCell ref="F21:J22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F15:J16" location="Aplicação!A1" display="Folha de Pagemento " xr:uid="{DB0F780B-233E-4879-AF56-A4409A849975}"/>
-    <hyperlink ref="F18:J19" location="Graficos!A1" display="Gráfico" xr:uid="{1E95D4EE-5C1A-4D6B-A8FA-73F7EB040ABD}"/>
+    <hyperlink ref="F15:J16" location="Aplicação!A1" display="Folha de Pagemento "/>
+    <hyperlink ref="F18:J19" location="Graficos!A1" display="Gráfico"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -2047,23 +2383,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2302,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,100 +2649,100 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27"/>
+      <c r="B22" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2419,7 +2756,7 @@
     <mergeCell ref="B4:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4:C5" location="Carlão!A1" display="Carlão " xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4:C5" location="Carlão!A1" display="Carlão "/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2427,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2454,54 +2791,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -2531,10 +2868,10 @@
       <c r="H5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -2565,8 +2902,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -2850,10 +3187,10 @@
         <f t="shared" si="6"/>
         <v>122.5</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -2890,8 +3227,8 @@
         <f t="shared" si="6"/>
         <v>122.5</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -3697,7 +4034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A0C32-FE79-488A-BE88-FB657C987DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3724,54 +4061,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -3801,10 +4138,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -3835,8 +4172,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -4120,10 +4457,10 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -4160,8 +4497,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -4967,7 +5304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7BF5FA-FC80-4DFF-B317-D6BD9AE8EF03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4994,54 +5331,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -5071,10 +5408,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -5105,8 +5442,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -5390,10 +5727,10 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -5430,8 +5767,8 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -6237,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A093DB8-0B9B-44B0-9D3A-6AA929B7E6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6264,54 +6601,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -6341,10 +6678,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -6375,8 +6712,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -6660,10 +6997,10 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -6700,8 +7037,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -7507,7 +7844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4B7909-7F32-47EE-8292-3F620149B5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7534,54 +7871,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -7611,10 +7948,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -7645,8 +7982,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -7930,10 +8267,10 @@
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -7970,8 +8307,8 @@
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -8777,7 +9114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5395AF22-03F3-4DAA-89B9-C90F9040933D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -8804,54 +9141,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -8881,10 +9218,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -8915,8 +9252,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -9200,10 +9537,10 @@
         <f t="shared" si="6"/>
         <v>157.5</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -9240,8 +9577,8 @@
         <f t="shared" si="6"/>
         <v>157.5</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -10047,7 +10384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF08266-1F2A-4C26-8D54-D30D5060EFCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10074,54 +10411,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -10151,10 +10488,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -10185,8 +10522,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -10470,10 +10807,10 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -10510,8 +10847,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">

--- a/Trabalho Fatec Automotive.xlsx
+++ b/Trabalho Fatec Automotive.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DERYK\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="15330" windowHeight="4470" activeTab="9"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="15330" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="Zelão" sheetId="15" r:id="rId8"/>
     <sheet name="Ditão" sheetId="14" r:id="rId9"/>
     <sheet name="Graficos" sheetId="5" r:id="rId10"/>
-    <sheet name="dados" sheetId="6" r:id="rId11"/>
+    <sheet name="Configuração" sheetId="6" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Betao_sal" localSheetId="5">Betão!$H$6:$H$35</definedName>
@@ -28,18 +33,18 @@
     <definedName name="Betao_sal" localSheetId="6">Tonhão!$H$6:$H$35</definedName>
     <definedName name="Betao_sal" localSheetId="7">Zelão!$H$6:$H$35</definedName>
     <definedName name="Betao_sal">#REF!</definedName>
-    <definedName name="Desc_INSS">dados!$F$7</definedName>
-    <definedName name="HD">dados!$B$4</definedName>
-    <definedName name="HE">dados!$B$2</definedName>
-    <definedName name="HN">dados!$B$1</definedName>
-    <definedName name="HS">dados!$B$3</definedName>
-    <definedName name="Tab_INSS">dados!$E$2:$F$4</definedName>
-    <definedName name="Tab_IRRF">dados!$E$11:$G$14</definedName>
-    <definedName name="Teto_INSS">dados!$F$6</definedName>
+    <definedName name="Desc_INSS">Configuração!$F$7</definedName>
+    <definedName name="HD">Configuração!$B$4</definedName>
+    <definedName name="HE">Configuração!$B$2</definedName>
+    <definedName name="HN">Configuração!$B$1</definedName>
+    <definedName name="HS">Configuração!$B$3</definedName>
+    <definedName name="Tab_INSS">Configuração!$E$2:$F$4</definedName>
+    <definedName name="Tab_IRRF">Configuração!$E$11:$G$14</definedName>
+    <definedName name="Teto_INSS">Configuração!$F$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>Gráfico</t>
   </si>
@@ -166,29 +171,6 @@
     <t xml:space="preserve">Nome:        Carlão </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Betão </t>
-    </r>
-  </si>
-  <si>
     <t>Salário Novo</t>
   </si>
   <si>
@@ -200,11 +182,32 @@
   <si>
     <t xml:space="preserve">Descontos </t>
   </si>
+  <si>
+    <t xml:space="preserve"> Betão </t>
+  </si>
+  <si>
+    <t>Nome:        Renatão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome:        Jorjão </t>
+  </si>
+  <si>
+    <t>Nome:        Betão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome:        Tonhão </t>
+  </si>
+  <si>
+    <t>Nome:        Zelão</t>
+  </si>
+  <si>
+    <t>Nome:        Ditão</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dddd"/>
@@ -246,13 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Adobe Garamond Pro Bold"/>
@@ -272,15 +268,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Adobe Garamond Pro Bold"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,12 +428,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -477,65 +479,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -544,14 +510,35 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Estilo 1" xfId="2"/>
-    <cellStyle name="Estilo 2" xfId="3"/>
-    <cellStyle name="Estilo 3" xfId="4"/>
-    <cellStyle name="Estilo 4" xfId="5"/>
-    <cellStyle name="Estilo 5" xfId="6"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Estilo 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Estilo 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Estilo 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Estilo 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Estilo 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -579,332 +566,1105 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Pós</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Reforma Salarial </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36600678040244972"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>dados!$A$16</c:f>
+              <c:f>Configuração!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salario Antigo</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Configuração!$A$17:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Carlão </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renatão</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jorjão</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Betão</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tonhão</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Zélão</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ditão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dados!$B$16:$C$16</c:f>
+              <c:f>Configuração!$B$17:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3622.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3482.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3692.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-003D-49E1-8DCA-5E62DE792EB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>dados!$A$17</c:f>
+              <c:f>Configuração!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carlão </c:v>
+                  <c:v>Salario Novo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$17:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Configuração!$A$17:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3622.5</c:v>
+                  <c:v>Carlão </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3970.4751000000015</c:v>
+                  <c:v>Renatão</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Renatão</c:v>
+                <c:pt idx="2">
+                  <c:v>Jorjão</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Betão</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tonhão</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Zélão</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ditão</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dados!$B$18:$C$18</c:f>
+              <c:f>Configuração!$C$17:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3482.5</c:v>
+                  <c:v>3970.4751000000015</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3795.0027000000018</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jorjão</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$19:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3465</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3788.4500750000011</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Betão</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$20:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3692.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4063.8023250000006</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tonhão</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$21:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>3613.8743500000014</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Zélão</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$22:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3885</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>4182.8509500000009</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dados!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ditão</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>dados!$B$23:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3360</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>3682.5044750000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-003D-49E1-8DCA-5E62DE792EB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="110711552"/>
-        <c:axId val="110917504"/>
+        <c:axId val="366879512"/>
+        <c:axId val="366881152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110711552"/>
+        <c:axId val="366879512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="110917504"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366881152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110917504"/>
+        <c:axId val="366881152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110711552"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366879512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="0"/>
-        <c:delete val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
       </c:legendEntry>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533397</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>402429</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>576262</xdr:rowOff>
+      <xdr:rowOff>659605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>469104</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>72614</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Imagem 4" descr="carro1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +1680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4081460" y="1338262"/>
-          <a:ext cx="4245769" cy="1257300"/>
+          <a:off x="3331367" y="1421605"/>
+          <a:ext cx="5813810" cy="1721644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,21 +1697,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F517A-C862-4B07-A0D8-FD3C86C0881B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -963,6 +1731,129 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Seta para a direita listrada 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886EC5FE-726B-47C9-ADD1-EDD990F0F937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1219200" y="5524500"/>
+          <a:ext cx="771526" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Seta para a direita listrada 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D4A939-EFE3-4197-9AE8-47C84FEF7E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="419100" y="4943475"/>
+          <a:ext cx="771526" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -989,7 +1880,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1944,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +2008,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12E37185-EA99-49B8-810B-88B103420D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E37185-EA99-49B8-810B-88B103420D90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,7 +2072,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61344E3F-5FD9-450E-BE47-3F83E94AF34B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61344E3F-5FD9-450E-BE47-3F83E94AF34B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +2136,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF1EE9-C683-4901-8E4A-41B4603CBC8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF1EE9-C683-4901-8E4A-41B4603CBC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +2200,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{650D51DD-0426-402E-8A9B-FA4C58E16F7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650D51DD-0426-402E-8A9B-FA4C58E16F7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +2264,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2E548CB-4B56-4171-9CF7-5E39057440E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E548CB-4B56-4171-9CF7-5E39057440E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +2328,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3295AE56-90C0-4624-84A2-D4589CD17217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3295AE56-90C0-4624-84A2-D4589CD17217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,19 +2626,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:J22"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1825,26 +2714,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="47.25">
+    <row r="5" spans="1:17" ht="61.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="2"/>
@@ -1971,9 +2860,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1988,9 +2877,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2005,13 +2894,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2020,15 +2909,15 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2037,9 +2926,9 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2054,17 +2943,17 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="F18" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2073,15 +2962,15 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2090,9 +2979,9 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="2"/>
@@ -2107,17 +2996,17 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2126,15 +3015,15 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2143,13 +3032,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2160,13 +3049,13 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2177,9 +3066,9 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="2"/>
@@ -2194,9 +3083,9 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="2"/>
@@ -2373,8 +3262,9 @@
     <mergeCell ref="F21:J22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F15:J16" location="Aplicação!A1" display="Folha de Pagemento "/>
-    <hyperlink ref="F18:J19" location="Graficos!A1" display="Gráfico"/>
+    <hyperlink ref="F15:J16" location="Aplicação!A1" display="Folha de Pagemento " xr:uid="{DB0F780B-233E-4879-AF56-A4409A849975}"/>
+    <hyperlink ref="F18:J19" location="Graficos!A1" display="Gráfico" xr:uid="{1E95D4EE-5C1A-4D6B-A8FA-73F7EB040ABD}"/>
+    <hyperlink ref="F21:J22" location="Configuração!A1" display="Configurações" xr:uid="{10A2F008-79E8-4AE2-BC0C-A6C99B18BFD7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -2383,24 +3273,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="R3:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="18:19">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="18:19">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="18:19">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="18:19">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="18:19">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="18:19">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="18:19">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2635,72 +3558,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="37"/>
+      <c r="B13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="20"/>
@@ -2710,11 +3634,11 @@
       <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="22"/>
@@ -2724,11 +3648,11 @@
       <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="21"/>
@@ -2738,11 +3662,11 @@
       <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2756,7 +3680,13 @@
     <mergeCell ref="B4:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4:C5" location="Carlão!A1" display="Carlão "/>
+    <hyperlink ref="B4:C5" location="Carlão!A1" display="Carlão " xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B7:C8" location="Renatão!A1" display="Renatão " xr:uid="{F49E37BE-6FBA-4C8F-AC19-5076E66AACFF}"/>
+    <hyperlink ref="B10:C11" location="Jorjão!A1" display="Jorjão" xr:uid="{6FD6E68E-0265-4F87-A8B7-9765513C8F87}"/>
+    <hyperlink ref="B13:C14" location="Betão!A1" display=" Betão " xr:uid="{91E96C6D-DF2A-4A8C-87BF-50DB2B21FF7A}"/>
+    <hyperlink ref="B16:C17" location="Tonhão!A1" display="Tonhão " xr:uid="{E0864814-F459-4DDC-ADB4-8EAB806FBD2B}"/>
+    <hyperlink ref="B19:C20" location="Zelão!A1" display="Zélão " xr:uid="{EC40A4D2-FC7F-4F90-85A0-5C6F68595E4A}"/>
+    <hyperlink ref="B22:C23" location="Ditão!A1" display="Ditão" xr:uid="{9B0468D7-2323-4FCB-BF8D-2232D49633EE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2764,10 +3694,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
@@ -2791,54 +3721,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -2868,10 +3798,10 @@
       <c r="H5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -2902,8 +3832,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -2937,7 +3867,7 @@
         <v>119.39999999999999</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -2980,7 +3910,7 @@
         <v>87.5</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -3187,10 +4117,10 @@
         <f t="shared" si="6"/>
         <v>122.5</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -3227,8 +4157,8 @@
         <f t="shared" si="6"/>
         <v>122.5</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -4034,11 +4964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A0C32-FE79-488A-BE88-FB657C987DD7}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4061,54 +4991,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -4138,10 +5068,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -4172,8 +5102,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -4207,7 +5137,7 @@
         <v>139.29999999999998</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -4250,7 +5180,7 @@
         <v>105</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -4457,10 +5387,10 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -4497,8 +5427,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -5304,11 +6234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7BF5FA-FC80-4DFF-B317-D6BD9AE8EF03}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5331,54 +6261,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -5408,10 +6338,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -5442,8 +6372,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -5477,7 +6407,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -5520,7 +6450,7 @@
         <v>140</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -5727,10 +6657,10 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -5767,8 +6697,8 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -6574,11 +7504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A093DB8-0B9B-44B0-9D3A-6AA929B7E6D0}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6601,54 +7531,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -6678,10 +7608,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -6712,8 +7642,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -6747,7 +7677,7 @@
         <v>119.39999999999999</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -6790,7 +7720,7 @@
         <v>105</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -6997,10 +7927,10 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -7037,8 +7967,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -7844,11 +8774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4B7909-7F32-47EE-8292-3F620149B5BB}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7871,54 +8801,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -7948,10 +8878,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -7982,8 +8912,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -8017,7 +8947,7 @@
         <v>99.5</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -8060,7 +8990,7 @@
         <v>87.5</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -8267,10 +9197,10 @@
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -8307,8 +9237,8 @@
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -9114,11 +10044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5395AF22-03F3-4DAA-89B9-C90F9040933D}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9141,54 +10071,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -9218,10 +10148,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -9252,8 +10182,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -9287,7 +10217,7 @@
         <v>181.79999999999998</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -9330,7 +10260,7 @@
         <v>157.5</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -9537,10 +10467,10 @@
         <f t="shared" si="6"/>
         <v>157.5</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -9577,8 +10507,8 @@
         <f t="shared" si="6"/>
         <v>157.5</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
@@ -10384,11 +11314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF08266-1F2A-4C26-8D54-D30D5060EFCE}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10411,54 +11341,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -10488,10 +11418,10 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11">
@@ -10522,8 +11452,8 @@
         <f t="shared" ref="H6:H35" si="0">IF(B6=1,G6*HD,IF(B6=7,F6*HS,D6*HN+E6*HE))</f>
         <v>142</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -10557,7 +11487,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9">
         <f>SUM(J8:J37)</f>
@@ -10600,7 +11530,7 @@
         <v>140</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="10">
         <f>M10</f>
@@ -10807,10 +11737,10 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="L13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11">
@@ -10847,8 +11777,8 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="15">
